--- a/prj/hazelnut_large/LHC-001/6-Photometric Test Data/2019-03-21_tests.xlsx
+++ b/prj/hazelnut_large/LHC-001/6-Photometric Test Data/2019-03-21_tests.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsavas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsavas/Documents/git/openag-mechanical/prj/hazelnut_large/LHC-001/6-Photometric Test Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B45EF-9994-7248-82EE-FEE74AC82781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BEE7B-7EEA-C246-8A98-40E049B2C745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test01" sheetId="2" r:id="rId1"/>
     <sheet name="test02" sheetId="3" r:id="rId2"/>
     <sheet name="12&quot;_4x COB_scratch" sheetId="11" state="hidden" r:id="rId3"/>
-    <sheet name="metadata" sheetId="12" r:id="rId4"/>
+    <sheet name="test03" sheetId="13" r:id="rId4"/>
+    <sheet name="metadata" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Target Wall, Warehouse</t>
   </si>
@@ -101,6 +102,30 @@
   </si>
   <si>
     <t>Tab describes 6 COB including far red, with 1825 optic, at 18" from target wall; first plot shows full PAR range, second plot shows far red range</t>
+  </si>
+  <si>
+    <t>Sunrise Measurement</t>
+  </si>
+  <si>
+    <t>2019-03-29 8:12 a.m.</t>
+  </si>
+  <si>
+    <t>Location: MIT Bates warehouse lot</t>
+  </si>
+  <si>
+    <t>Far red (701-780nm): 6.83 µmol/m2/s</t>
+  </si>
+  <si>
+    <t>PPFD (400-700nm): 174.72 µmol/m2/s</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>Tab describes a single data point taken outdoors during sunrise, for far red comparison.</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -111,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -153,6 +178,20 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -168,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -256,11 +295,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -402,6 +521,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +875,7 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N3" sqref="N1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -730,6 +884,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="12" width="7.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
@@ -1149,7 +1304,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD1048576"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -1157,6 +1312,7 @@
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="12" width="7.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="15" max="16384" width="14.5" hidden="1"/>
   </cols>
   <sheetData>
@@ -2727,14 +2883,175 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68676DBE-26A5-EF41-8BFB-47536DAF406E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="52" customWidth="1"/>
+    <col min="2" max="10" width="7.33203125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="12" max="14" width="0" style="52" hidden="1"/>
+    <col min="15" max="16384" width="14.5" style="52" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="51"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="51"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51"/>
+      <c r="B3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="51"/>
+      <c r="B4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="55"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="51"/>
+      <c r="B9" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="58"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <conditionalFormatting sqref="H9:J9 B11:J11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFCC0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:J9 B11:J11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2808,9 +3125,15 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>

--- a/prj/hazelnut_large/LHC-001/6-Photometric Test Data/2019-03-21_tests.xlsx
+++ b/prj/hazelnut_large/LHC-001/6-Photometric Test Data/2019-03-21_tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsavas/Documents/git/openag-mechanical/prj/hazelnut_large/LHC-001/6-Photometric Test Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Open AG\Documents\GitHub\openag-mechanical\prj\hazelnut_large\LHC-001\6-Photometric Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BEE7B-7EEA-C246-8A98-40E049B2C745}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E409E-1BBA-4B2A-9AC8-227CEB135A46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test01" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <sheet name="test03" sheetId="13" r:id="rId4"/>
     <sheet name="metadata" sheetId="12" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -875,30 +882,30 @@
   </sheetPr>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="12" width="7.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="14.5" hidden="1"/>
+    <col min="15" max="16384" width="14.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -913,7 +920,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -928,7 +935,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -943,7 +950,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -951,7 +958,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -959,7 +966,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -973,7 +980,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
         <v>0.80330000000000001</v>
@@ -1009,7 +1016,7 @@
         <v>0.86509999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="13">
         <v>0.97240000000000004</v>
@@ -1045,7 +1052,7 @@
         <v>0.98050000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="13">
         <v>1.39</v>
@@ -1081,7 +1088,7 @@
         <v>1.2764</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="13">
         <v>1.66</v>
@@ -1119,7 +1126,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="13">
         <v>1.3456999999999999</v>
@@ -1157,7 +1164,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="13">
         <v>0.81030000000000002</v>
@@ -1195,7 +1202,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="20">
         <v>0.64429999999999998</v>
@@ -1233,7 +1240,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -1249,7 +1256,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -1265,7 +1272,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" ht="13" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -1303,30 +1310,30 @@
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="12" width="7.33203125" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="12" width="7.36328125" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="14.5" hidden="1"/>
+    <col min="15" max="16384" width="14.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
@@ -1341,7 +1348,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1356,7 +1363,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -1371,7 +1378,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
         <v>6</v>
@@ -1379,7 +1386,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>7</v>
@@ -1387,7 +1394,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1401,7 +1408,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="9">
         <v>10.823</v>
@@ -1437,7 +1444,7 @@
         <v>23.219000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="19">
         <v>12.763999999999999</v>
@@ -1473,7 +1480,7 @@
         <v>35.368000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="19">
         <v>14.727</v>
@@ -1509,7 +1516,7 @@
         <v>51.95</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="19">
         <v>15.13</v>
@@ -1547,7 +1554,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="19">
         <v>14.404999999999999</v>
@@ -1585,7 +1592,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="19">
         <v>10.67</v>
@@ -1623,7 +1630,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="27">
         <v>9.6974</v>
@@ -1661,7 +1668,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -1677,7 +1684,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -1693,17 +1700,17 @@
       <c r="M17" s="5"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="M18" s="2"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="M19" s="2"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="4"/>
       <c r="I20" s="5" t="s">
@@ -1716,7 +1723,7 @@
       <c r="M20" s="2"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>6</v>
@@ -1731,7 +1738,7 @@
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="7" t="s">
         <v>7</v>
@@ -1746,7 +1753,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1760,7 +1767,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="9">
         <v>0.89500000000000002</v>
@@ -1796,7 +1803,7 @@
         <v>3.3578000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="19">
         <v>1.0035000000000001</v>
@@ -1832,7 +1839,7 @@
         <v>5.5327999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="19">
         <v>1.1343000000000001</v>
@@ -1868,7 +1875,7 @@
         <v>8.6990999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="19">
         <v>1.1692</v>
@@ -1906,7 +1913,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="19">
         <v>1.1456</v>
@@ -1944,7 +1951,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="19">
         <v>0.90329999999999999</v>
@@ -1982,7 +1989,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="27">
         <v>0.83050000000000002</v>
@@ -2020,7 +2027,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2036,7 +2043,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="18"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2052,7 +2059,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="18"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2102,17 +2109,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="12" width="7.33203125" customWidth="1"/>
+    <col min="2" max="12" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2127,7 +2134,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2142,7 +2149,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -2157,7 +2164,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -2165,10 +2172,10 @@
       <c r="M5" s="2"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33">
         <v>10.335000000000001</v>
@@ -2204,7 +2211,7 @@
         <v>13.603999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="36">
         <v>11.502000000000001</v>
@@ -2240,7 +2247,7 @@
         <v>16.466999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="36">
         <v>13.084</v>
@@ -2278,7 +2285,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="36">
         <v>14.048999999999999</v>
@@ -2316,7 +2323,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="36">
         <v>14.569000000000001</v>
@@ -2354,7 +2361,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="36">
         <v>10.818</v>
@@ -2392,7 +2399,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="39">
         <v>9.8849</v>
@@ -2430,7 +2437,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -2446,7 +2453,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
@@ -2462,7 +2469,7 @@
       <c r="M15" s="5"/>
       <c r="N15" s="18"/>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="30"/>
       <c r="C16" s="26"/>
@@ -2478,7 +2485,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="4"/>
       <c r="C17" s="26"/>
@@ -2494,7 +2501,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="18"/>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="4"/>
       <c r="C18" s="26"/>
@@ -2510,7 +2517,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2525,345 +2532,345 @@
       <c r="M19" s="5"/>
       <c r="N19" s="18"/>
     </row>
-    <row r="20" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="M23" s="31"/>
       <c r="N23" s="32"/>
     </row>
-    <row r="24" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="M24" s="31"/>
       <c r="N24" s="32"/>
     </row>
-    <row r="25" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="M25" s="31"/>
       <c r="N25" s="32"/>
     </row>
-    <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="M26" s="31"/>
       <c r="N26" s="32"/>
     </row>
-    <row r="27" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="M27" s="2"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M28" s="2"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M29" s="2"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M30" s="2"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M31" s="2"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M32" s="2"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M33" s="2"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M34" s="2"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M35" s="2"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M36" s="2"/>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M38" s="2"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M39" s="2"/>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M40" s="2"/>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M42" s="2"/>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M43" s="2"/>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M44" s="2"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M45" s="2"/>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M46" s="2"/>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M47" s="2"/>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M48" s="2"/>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M49" s="2"/>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M50" s="2"/>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M51" s="2"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M52" s="2"/>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M53" s="2"/>
       <c r="N53" s="3"/>
     </row>
-    <row r="54" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M54" s="2"/>
       <c r="N54" s="3"/>
     </row>
-    <row r="55" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M55" s="2"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M56" s="2"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M57" s="2"/>
       <c r="N57" s="3"/>
     </row>
-    <row r="58" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M58" s="2"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M59" s="2"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M60" s="2"/>
       <c r="N60" s="3"/>
     </row>
-    <row r="61" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M61" s="2"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M62" s="2"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="63" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M63" s="2"/>
       <c r="N63" s="3"/>
     </row>
-    <row r="64" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M64" s="2"/>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M65" s="2"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M66" s="2"/>
       <c r="N66" s="3"/>
     </row>
-    <row r="67" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M67" s="2"/>
       <c r="N67" s="3"/>
     </row>
-    <row r="68" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M68" s="2"/>
       <c r="N68" s="3"/>
     </row>
-    <row r="69" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M69" s="2"/>
       <c r="N69" s="3"/>
     </row>
-    <row r="70" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M70" s="2"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M71" s="2"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M72" s="2"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M73" s="2"/>
       <c r="N73" s="3"/>
     </row>
-    <row r="74" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M74" s="2"/>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M75" s="2"/>
       <c r="N75" s="3"/>
     </row>
-    <row r="76" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M76" s="2"/>
       <c r="N76" s="3"/>
     </row>
-    <row r="77" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M77" s="2"/>
       <c r="N77" s="3"/>
     </row>
-    <row r="78" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M78" s="2"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M79" s="2"/>
       <c r="N79" s="3"/>
     </row>
-    <row r="80" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M80" s="2"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M81" s="2"/>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M82" s="2"/>
       <c r="N82" s="3"/>
     </row>
-    <row r="83" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M83" s="2"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M84" s="2"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M85" s="2"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M86" s="2"/>
       <c r="N86" s="3"/>
     </row>
-    <row r="87" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M87" s="2"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M88" s="2"/>
       <c r="N88" s="3"/>
     </row>
-    <row r="89" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M89" s="2"/>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M90" s="2"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M91" s="2"/>
       <c r="N91" s="3"/>
     </row>
-    <row r="92" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M92" s="2"/>
       <c r="N92" s="3"/>
     </row>
-    <row r="93" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M93" s="2"/>
       <c r="N93" s="3"/>
     </row>
-    <row r="94" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M94" s="2"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M95" s="2"/>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M96" s="2"/>
       <c r="N96" s="3"/>
     </row>
-    <row r="97" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M97" s="2"/>
       <c r="N97" s="3"/>
     </row>
-    <row r="98" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M98" s="2"/>
       <c r="N98" s="3"/>
     </row>
-    <row r="99" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M99" s="2"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M100" s="2"/>
       <c r="N100" s="3"/>
     </row>
-    <row r="101" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M101" s="2"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M102" s="2"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M103" s="2"/>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="13:14" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="13:14" ht="12.5" x14ac:dyDescent="0.25">
       <c r="M104" s="2"/>
       <c r="N104" s="3"/>
     </row>
@@ -2893,24 +2900,23 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="52" customWidth="1"/>
-    <col min="2" max="10" width="7.33203125" style="52" customWidth="1"/>
-    <col min="11" max="11" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="0" style="52" hidden="1"/>
-    <col min="15" max="16384" width="14.5" style="52" hidden="1"/>
+    <col min="1" max="1" width="14.453125" style="52" customWidth="1"/>
+    <col min="2" max="10" width="7.36328125" style="52" customWidth="1"/>
+    <col min="11" max="14" width="0" style="52" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="14.453125" style="52" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51"/>
       <c r="K1" s="53"/>
     </row>
-    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51"/>
       <c r="B3" s="54" t="s">
         <v>26</v>
@@ -2919,7 +2925,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51"/>
       <c r="B4" s="54" t="s">
         <v>27</v>
@@ -2928,7 +2934,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="51"/>
       <c r="B5" s="54" t="s">
         <v>28</v>
@@ -2937,11 +2943,11 @@
       <c r="J5" s="56"/>
       <c r="K5" s="53"/>
     </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51"/>
       <c r="K6" s="53"/>
     </row>
-    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="51"/>
       <c r="B7" s="59" t="s">
         <v>29</v>
@@ -2953,7 +2959,7 @@
       <c r="G7" s="61"/>
       <c r="K7" s="53"/>
     </row>
-    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="51"/>
       <c r="B8" s="62"/>
       <c r="C8" s="63"/>
@@ -2963,7 +2969,7 @@
       <c r="G8" s="64"/>
       <c r="K8" s="53"/>
     </row>
-    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="51"/>
       <c r="B9" s="65" t="s">
         <v>30</v>
@@ -2978,8 +2984,8 @@
       <c r="J9" s="57"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -2992,32 +2998,32 @@
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="H9:J9 B11:J11">
     <cfRule type="colorScale" priority="5">
@@ -3054,15 +3060,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="114.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="16384" width="14.5" hidden="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="114.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="4" max="16384" width="14.453125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>13</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
@@ -3086,12 +3092,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="45"/>
       <c r="C4" s="42"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>17</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>20</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>21</v>
       </c>
@@ -3124,7 +3130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>31</v>
       </c>
@@ -3135,21 +3141,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42"/>
       <c r="B10" s="44"/>
     </row>
-    <row r="11" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
